--- a/Docs/Máquina1 - ISIS1225 - Tablas de Datos Lab 7.xlsx
+++ b/Docs/Máquina1 - ISIS1225 - Tablas de Datos Lab 7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ESTRUCTURA DE DATOS/LABORATORIOS/LabCollision-S07-G07/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5422BB79-9B3A-1745-9D8F-CAFB1D9DA137}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E739A4-5AF9-0941-B2AC-B1124026E354}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -145,6 +142,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,7 +739,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>30649.014999999999</c:v>
+                  <c:v>29649.014999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>29903.305</c:v>
@@ -2015,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2027,11 +2027,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2048,10 +2048,10 @@
       <c r="A3" s="2">
         <v>0.3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1307466.378</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>29968.994999999999</v>
       </c>
     </row>
@@ -2059,10 +2059,10 @@
       <c r="A4" s="2">
         <v>0.5</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>1307437.4240000001</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>28752.006000000001</v>
       </c>
     </row>
@@ -2070,19 +2070,19 @@
       <c r="A5" s="2">
         <v>0.8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1307436.9550000001</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>27876.386999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2099,21 +2099,21 @@
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>1307458.7720000001</v>
       </c>
-      <c r="C10" s="5">
-        <v>30649.014999999999</v>
+      <c r="C10" s="4">
+        <v>29649.014999999999</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>1307451.064</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>29903.305</v>
       </c>
     </row>
@@ -2121,10 +2121,10 @@
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>1307451.4469999999</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>30318.738000000001</v>
       </c>
     </row>
@@ -2143,21 +2143,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="04b510ef1bc187d79b842c792d256c41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9049981c3eb1ee76226ec9e2f8ecd7b4" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -2368,10 +2353,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C2AFC4-FCA8-4617-A6BD-EF7AAAEEB795}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2394,20 +2405,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C2AFC4-FCA8-4617-A6BD-EF7AAAEEB795}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Máquina1 - ISIS1225 - Tablas de Datos Lab 7.xlsx
+++ b/Docs/Máquina1 - ISIS1225 - Tablas de Datos Lab 7.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ESTRUCTURA DE DATOS/LABORATORIOS/LabCollision-S07-G07/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianadiaz/Downloads/Laboratorio 7/ISIS1225-SampleCollision/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E739A4-5AF9-0941-B2AC-B1124026E354}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="767" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab7" sheetId="1" r:id="rId1"/>
     <sheet name="Graf Mem Vs Tiempo" sheetId="13" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -61,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,7 +170,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -191,7 +195,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -217,7 +220,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -243,7 +245,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -268,7 +269,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -293,7 +293,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -319,7 +318,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -345,7 +343,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -371,7 +368,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -396,7 +392,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -421,9 +416,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -454,13 +449,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-419" sz="1800" b="1">
+              <a:rPr lang="x-none" sz="1800" b="1">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Comparación de Tiempo</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="es-419" sz="1800" b="1" baseline="0">
+              <a:rPr lang="x-none" sz="1800" b="1" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t> y Memoria utilizados en PROBING y CHAINING </a:t>
@@ -471,6 +466,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -496,7 +492,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -558,6 +554,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -583,7 +580,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -595,13 +592,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1307466.378</c:v>
+                  <c:v>1.307466378E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1307437.4240000001</c:v>
+                  <c:v>1.307437424E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1307436.9550000001</c:v>
+                  <c:v>1.307436955E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -613,19 +610,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>29968.994999999999</c:v>
+                  <c:v>29968.995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28752.006000000001</c:v>
+                  <c:v>28752.006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27876.386999999999</c:v>
+                  <c:v>27876.387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4E4E-4715-9D75-DA94209629B7}"/>
             </c:ext>
@@ -679,11 +676,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -709,7 +706,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -721,13 +718,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1307458.7720000001</c:v>
+                  <c:v>1.307458772E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1307451.064</c:v>
+                  <c:v>1.307451064E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1307451.4469999999</c:v>
+                  <c:v>1.307451447E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,19 +736,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>29649.014999999999</c:v>
+                  <c:v>29649.015</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>29903.305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30318.738000000001</c:v>
+                  <c:v>30318.738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4E4E-4715-9D75-DA94209629B7}"/>
             </c:ext>
@@ -765,11 +762,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="696671312"/>
-        <c:axId val="1833162896"/>
+        <c:axId val="1450962768"/>
+        <c:axId val="1450966048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="696671312"/>
+        <c:axId val="1450962768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,7 +810,7 @@
                   <a:t>Memoria Utilizada [</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="es-419" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="x-none" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>kB</a:t>
@@ -825,6 +822,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -850,7 +848,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -888,15 +886,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833162896"/>
+        <c:crossAx val="1450966048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1833162896"/>
+        <c:axId val="1450966048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,6 +945,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -972,7 +971,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1010,10 +1009,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="696671312"/>
+        <c:crossAx val="1450962768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1027,6 +1026,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1052,20 +1052,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1089,7 +1089,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1649,10 +1649,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CA07E00A-1DDB-47A3-B681-B59870FF7EA9}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1669,7 +1669,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC27BB9-A0AF-4A08-B094-C0C301BDCA87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EC27BB9-A0AF-4A08-B094-C0C301BDCA87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1693,24 +1693,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A2:C5" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A2:C5"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Tiempo de Ejecución [ms]" dataDxfId="5"/>
+    <tableColumn id="1" name="Factor de Carga (PROBING)" dataDxfId="7"/>
+    <tableColumn id="2" name="Consumo de Datos [kB]" dataDxfId="6"/>
+    <tableColumn id="3" name="Tiempo de Ejecución [ms]" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A9:C12" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A9:C12"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Consumo de Datos [kB]" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Tiempo de Ejecución [ms]" dataDxfId="0"/>
+    <tableColumn id="1" name="Factor de Carga (CHAINING)" dataDxfId="2"/>
+    <tableColumn id="2" name="Consumo de Datos [kB]" dataDxfId="1"/>
+    <tableColumn id="3" name="Tiempo de Ejecución [ms]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2012,10 +2012,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2033,7 +2033,7 @@
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2084,7 +2084,7 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>

--- a/Docs/Máquina1 - ISIS1225 - Tablas de Datos Lab 7.xlsx
+++ b/Docs/Máquina1 - ISIS1225 - Tablas de Datos Lab 7.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianadiaz/Downloads/Laboratorio 7/ISIS1225-SampleCollision/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ESTRUCTURA DE DATOS/LABORATORIOS/LabCollision-S07-G07/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C6FCBB-4EAF-FC4D-A6A1-91F817192C4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="767" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="767" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab7" sheetId="1" r:id="rId1"/>
     <sheet name="Graf Mem Vs Tiempo" sheetId="13" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,9 +417,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -466,7 +467,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -492,7 +492,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -554,7 +554,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -580,7 +579,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -592,13 +591,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.307466378E6</c:v>
+                  <c:v>1307466.378</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.307437424E6</c:v>
+                  <c:v>1307437.4240000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.307436955E6</c:v>
+                  <c:v>1307436.9550000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -610,19 +609,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>29968.995</c:v>
+                  <c:v>29968.994999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28752.006</c:v>
+                  <c:v>28752.006000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27876.387</c:v>
+                  <c:v>27876.386999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4E4E-4715-9D75-DA94209629B7}"/>
             </c:ext>
@@ -680,7 +679,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -706,7 +704,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -718,13 +716,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.307458772E6</c:v>
+                  <c:v>1307458.7720000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.307451064E6</c:v>
+                  <c:v>1307451.064</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.307451447E6</c:v>
+                  <c:v>1307451.4469999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -736,19 +734,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>29649.015</c:v>
+                  <c:v>29649.014999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>29903.305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30318.738</c:v>
+                  <c:v>30318.738000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4E4E-4715-9D75-DA94209629B7}"/>
             </c:ext>
@@ -822,7 +820,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -848,7 +845,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -886,7 +883,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1450966048"/>
@@ -945,7 +942,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -971,7 +967,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1009,7 +1005,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1450962768"/>
@@ -1026,7 +1022,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1052,20 +1047,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1089,7 +1084,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1649,10 +1644,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1663,13 +1658,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669130" cy="6272696"/>
+    <xdr:ext cx="8674100" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EC27BB9-A0AF-4A08-B094-C0C301BDCA87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC27BB9-A0AF-4A08-B094-C0C301BDCA87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1693,24 +1688,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A2:C5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A2:C5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Factor de Carga (PROBING)" dataDxfId="7"/>
-    <tableColumn id="2" name="Consumo de Datos [kB]" dataDxfId="6"/>
-    <tableColumn id="3" name="Tiempo de Ejecución [ms]" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Factor de Carga (PROBING)" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Consumo de Datos [kB]" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tiempo de Ejecución [ms]" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A9:C12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A9:C12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Factor de Carga (CHAINING)" dataDxfId="2"/>
-    <tableColumn id="2" name="Consumo de Datos [kB]" dataDxfId="1"/>
-    <tableColumn id="3" name="Tiempo de Ejecución [ms]" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Factor de Carga (CHAINING)" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Consumo de Datos [kB]" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Tiempo de Ejecución [ms]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2012,11 +2007,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2033,7 +2028,7 @@
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2084,7 +2079,7 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2143,6 +2138,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="04b510ef1bc187d79b842c792d256c41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9049981c3eb1ee76226ec9e2f8ecd7b4" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -2353,36 +2363,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C2AFC4-FCA8-4617-A6BD-EF7AAAEEB795}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2405,9 +2389,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C2AFC4-FCA8-4617-A6BD-EF7AAAEEB795}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>